--- a/deliverable2/RootDigital_Deliverable_2_SprintBacklog.xlsx
+++ b/deliverable2/RootDigital_Deliverable_2_SprintBacklog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sepideh/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\colea\Documents\GitHub\Root-Digital\deliverable2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC51CE6-9725-3141-AD36-1F5299BCC1DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E9A2EC-585A-4248-BFDD-86FA50BE9CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3384" yWindow="3384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t>User Story</t>
   </si>
@@ -38,13 +38,58 @@
   </si>
   <si>
     <t>Story Points</t>
+  </si>
+  <si>
+    <t>Urgent</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>As a user, I want to save my progress if I leave the app, so I can multitask while using the application</t>
+  </si>
+  <si>
+    <t>As a desk-job-worker, I want stretches to be included as available exercises,
+	so that I can keep my back, neck, and shoulders healthy during long days.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a novice to fitness, I want allow the app to randomly select exercises for me,
+	so that I can see which ones work best for me. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a college student, I want to have access to exercises I can do in my chair,
+	so that I can I can use this app in the library. </t>
+  </si>
+  <si>
+    <t>Sprint Goal</t>
+  </si>
+  <si>
+    <t>Story Type</t>
+  </si>
+  <si>
+    <t>Story Points Completed</t>
+  </si>
+  <si>
+    <t>Names and Contribution Percentage</t>
+  </si>
+  <si>
+    <t>How to implement</t>
+  </si>
+  <si>
+    <t>Functional KA</t>
+  </si>
+  <si>
+    <t>Everyone - 20% each</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -67,6 +112,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -104,17 +155,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -334,323 +394,428 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" customWidth="1"/>
-    <col min="2" max="2" width="44.5" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:10" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
+      <c r="I1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="7">
+        <v>3</v>
+      </c>
+      <c r="I2" s="7">
+        <v>1</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="7">
+        <v>8</v>
+      </c>
+      <c r="I3" s="7">
+        <v>1</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="7">
+        <v>5</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="9">
+        <v>8</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="5"/>
+      <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
+    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="5"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="5"/>
+      <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="5"/>
+      <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
+    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
+    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="5"/>
+      <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
+    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="5"/>
+      <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="5"/>
+      <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
+    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="5"/>
+      <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
+    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
       <c r="B16" s="3"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
+    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="5"/>
+      <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
+    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="5"/>
+      <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
+    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="5"/>
+      <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
+    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="5"/>
+      <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
+    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="5"/>
+      <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
+    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="5"/>
+      <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
+    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="5"/>
+      <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
+    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="5"/>
+      <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
+    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="5"/>
+      <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
+    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="5"/>
+      <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
+    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="5"/>
+      <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
+    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="5"/>
+      <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
+    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="5"/>
+      <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="4"/>
+    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="5"/>
+      <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="4"/>
+    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="5"/>
+      <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
+    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="5"/>
+      <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="4"/>
+    <row r="33" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="5"/>
+      <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="4"/>
+    <row r="34" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="5"/>
+      <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="4"/>
+    <row r="35" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
       <c r="B35" s="3"/>
-      <c r="C35" s="5"/>
+      <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
+    <row r="36" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
       <c r="B36" s="3"/>
-      <c r="C36" s="5"/>
+      <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
+    <row r="37" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="5"/>
+      <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="3"/>
